--- a/data/state_election_results/northdakota_president.xlsx
+++ b/data/state_election_results/northdakota_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71589C7-3F88-2E40-AC4A-EEBC6C3D3924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9EEB97-458C-BD42-8E90-3B4E85079334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17780" yWindow="4200" windowWidth="14160" windowHeight="15440" xr2:uid="{26AFCAA6-ECFA-524B-998F-056A04DB88AD}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>trump.votes</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>Williams</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -258,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,32 +575,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3D666B-8C99-5D48-81F9-ECE0B467D146}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A54"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>981</v>
@@ -617,7 +615,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>3568</v>
@@ -634,7 +632,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>1094</v>
@@ -651,7 +649,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>541</v>
@@ -668,7 +666,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>2575</v>
@@ -685,7 +683,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1395</v>
@@ -702,7 +700,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>994</v>
@@ -719,7 +717,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>34744</v>
@@ -736,7 +734,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>42619</v>
@@ -753,7 +751,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>1499</v>
@@ -770,7 +768,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>1742</v>
@@ -787,7 +785,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>904</v>
@@ -804,7 +802,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>1951</v>
@@ -821,7 +819,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>854</v>
@@ -838,7 +836,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>1738</v>
@@ -855,7 +853,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>1362</v>
@@ -872,7 +870,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>871</v>
@@ -889,7 +887,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>16987</v>
@@ -906,7 +904,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>1145</v>
@@ -923,7 +921,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>907</v>
@@ -940,7 +938,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>1091</v>
@@ -957,7 +955,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>1215</v>
@@ -974,7 +972,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>1645</v>
@@ -991,7 +989,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>930</v>
@@ -1008,7 +1006,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>2364</v>
@@ -1025,7 +1023,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
         <v>1153</v>
@@ -1042,7 +1040,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>4482</v>
@@ -1059,7 +1057,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>4198</v>
@@ -1076,7 +1074,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
         <v>3856</v>
@@ -1093,7 +1091,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>12243</v>
@@ -1110,7 +1108,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>2824</v>
@@ -1127,7 +1125,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
         <v>1141</v>
@@ -1144,7 +1142,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>918</v>
@@ -1161,7 +1159,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
         <v>2460</v>
@@ -1178,7 +1176,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
         <v>1585</v>
@@ -1195,7 +1193,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
         <v>3577</v>
@@ -1212,7 +1210,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>1418</v>
@@ -1229,7 +1227,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
         <v>1065</v>
@@ -1246,7 +1244,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2">
         <v>5072</v>
@@ -1263,7 +1261,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
         <v>1257</v>
@@ -1280,7 +1278,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
         <v>1266</v>
@@ -1297,7 +1295,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>688</v>
@@ -1314,7 +1312,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>258</v>
@@ -1331,7 +1329,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>380</v>
@@ -1348,7 +1346,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
         <v>12110</v>
@@ -1365,7 +1363,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>652</v>
@@ -1382,7 +1380,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2">
         <v>6994</v>
@@ -1399,7 +1397,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>830</v>
@@ -1416,7 +1414,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2">
         <v>2522</v>
@@ -1433,7 +1431,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2">
         <v>3324</v>
@@ -1450,7 +1448,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
         <v>19974</v>
@@ -1467,7 +1465,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
         <v>1893</v>
@@ -1484,7 +1482,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
         <v>11739</v>
